--- a/Config/Datas/__beans__.xlsx
+++ b/Config/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>##var</t>
   </si>
@@ -102,6 +102,48 @@
   </si>
   <si>
     <t>y</t>
+  </si>
+  <si>
+    <t>AudioData</t>
+  </si>
+  <si>
+    <t>audioName</t>
+  </si>
+  <si>
+    <t>sourceType</t>
+  </si>
+  <si>
+    <t>AudioSourceType</t>
+  </si>
+  <si>
+    <t>playType</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>loop</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>onlySelf</t>
+  </si>
+  <si>
+    <t>delay</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>maxLoopTime</t>
   </si>
 </sst>
 </file>
@@ -1052,10 +1094,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1173,19 +1215,48 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:13">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
+    <row r="9" spans="2:11">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="10:11">
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="10:11">
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="10:11">
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="10:11">
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="2:13">
       <c r="B14" s="3"/>
@@ -1196,8 +1267,12 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
     </row>
@@ -1210,8 +1285,12 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="J15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
     </row>
@@ -1224,10 +1303,40 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="J16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="2:13">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="10:11">
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Config/Datas/__beans__.xlsx
+++ b/Config/Datas/__beans__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -95,6 +95,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>realLength</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>x</t>
   </si>
   <si>
@@ -120,9 +126,6 @@
   </si>
   <si>
     <t>volume</t>
-  </si>
-  <si>
-    <t>float</t>
   </si>
   <si>
     <t>speed</t>
@@ -1094,10 +1097,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1212,26 +1215,26 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="J9" t="s">
+    </row>
+    <row r="7" customFormat="1" spans="10:11">
+      <c r="J7" t="s">
         <v>26</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="10:11">
-      <c r="J10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="11" spans="10:11">
@@ -1239,15 +1242,15 @@
         <v>29</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="10:11">
       <c r="J12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="10:11">
@@ -1255,26 +1258,16 @@
         <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="10:11">
+      <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="K14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="2:13">
       <c r="B15" s="3"/>
@@ -1286,10 +1279,10 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="3" t="s">
         <v>35</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -1307,7 +1300,7 @@
         <v>36</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
@@ -1325,17 +1318,35 @@
         <v>37</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="10:11">
-      <c r="J18" t="s">
+    <row r="18" spans="2:13">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K18" t="s">
-        <v>31</v>
+      <c r="K18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="10:11">
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
